--- a/RFSC.xlsx
+++ b/RFSC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Alter" sheetId="1" r:id="rId1"/>
@@ -996,13 +996,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -1039,13 +1039,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1341,33 +1341,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -1377,15 +1377,18 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>67</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1394,15 +1397,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>63</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1411,15 +1417,18 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>52</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1428,15 +1437,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>49</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1</v>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1445,15 +1457,18 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>46</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>1</v>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1462,634 +1477,760 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>37</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1</v>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
       <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>39</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>1</v>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>1</v>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
       <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>42</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>1</v>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1</v>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
       <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>43</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>1</v>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>1</v>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>1</v>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
       <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>48</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>1</v>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1</v>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>1</v>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
       <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>51</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>1</v>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>1</v>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>12</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1</v>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
       <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>56</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>1</v>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
       <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>54</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>1</v>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>1</v>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>14</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>1</v>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>13</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
       <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
         <v>58</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>1</v>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>13</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>1</v>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
         <v>15</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
       <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>61</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>1</v>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>15</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
       <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>60</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>1</v>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <v>15</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>1</v>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>17</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>1</v>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
         <v>16</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
       <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
         <v>62</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>1</v>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>16</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>1</v>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
         <v>18</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>1</v>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
       <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
         <v>64</v>
       </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>1</v>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>1</v>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
         <v>19</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
       <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
         <v>65</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>1</v>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
         <v>19</v>
       </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>1</v>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
         <v>20</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
       <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>66</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>1</v>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
         <v>20</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>1</v>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
         <v>21</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>1</v>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
       <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
         <v>69</v>
       </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>1</v>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
         <v>2</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
       <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
         <v>68</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>1</v>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
         <v>2</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>1</v>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
         <v>23</v>
       </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>1</v>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
         <v>22</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
       <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
         <v>71</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>1</v>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
         <v>22</v>
       </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>1</v>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
         <v>24</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2101,1003 +2242,1192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71">
-        <v>1</v>
-      </c>
-      <c r="C2" s="134">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="71">
+        <v>1</v>
+      </c>
+      <c r="D2" s="134">
         <v>2</v>
       </c>
-      <c r="D2" s="197">
-        <v>1</v>
-      </c>
-      <c r="E2" s="228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="72">
-        <v>1</v>
-      </c>
-      <c r="C3" s="135">
+      <c r="E2" s="197">
+        <v>1</v>
+      </c>
+      <c r="F2" s="228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="72">
+        <v>1</v>
+      </c>
+      <c r="D3" s="135">
         <v>5</v>
       </c>
-      <c r="D3" s="198">
+      <c r="E3" s="198">
         <v>40</v>
       </c>
-      <c r="E3" s="229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="73">
-        <v>1</v>
-      </c>
-      <c r="C4" s="136">
-        <v>0</v>
-      </c>
-      <c r="E4" s="230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="74">
+      <c r="F3" s="229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C5" s="137">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="73">
+        <v>1</v>
+      </c>
+      <c r="D4" s="136">
+        <v>0</v>
+      </c>
+      <c r="F4" s="230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="74">
+        <v>3</v>
+      </c>
+      <c r="D5" s="137">
         <v>5</v>
       </c>
-      <c r="D5" s="199">
+      <c r="E5" s="199">
         <v>64</v>
       </c>
-      <c r="E5" s="231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="75">
+      <c r="F5" s="231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75">
         <v>3</v>
       </c>
-      <c r="C6" s="138">
+      <c r="D6" s="138">
         <v>3</v>
       </c>
-      <c r="D6" s="200">
+      <c r="E6" s="200">
         <v>80</v>
       </c>
-      <c r="E6" s="232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="76">
+      <c r="F6" s="232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="76">
         <v>3</v>
       </c>
-      <c r="C7" s="139">
+      <c r="D7" s="139">
         <v>3</v>
       </c>
-      <c r="D7" s="201">
+      <c r="E7" s="201">
         <v>70</v>
       </c>
-      <c r="E7" s="233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="B8" s="77">
+      <c r="F7" s="233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="77">
         <v>3</v>
       </c>
-      <c r="C8" s="140">
-        <v>1</v>
-      </c>
-      <c r="D8" s="202">
-        <v>1</v>
-      </c>
-      <c r="E8" s="234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>1</v>
-      </c>
-      <c r="B9" s="78">
+      <c r="D8" s="140">
+        <v>1</v>
+      </c>
+      <c r="E8" s="202">
+        <v>1</v>
+      </c>
+      <c r="F8" s="234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78">
         <v>3</v>
       </c>
-      <c r="C9" s="141">
-        <v>0</v>
-      </c>
-      <c r="E9" s="235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>1</v>
-      </c>
-      <c r="B10" s="79">
+      <c r="D9" s="141">
+        <v>0</v>
+      </c>
+      <c r="F9" s="235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="79">
         <v>7</v>
       </c>
-      <c r="C10" s="142">
-        <v>0</v>
-      </c>
-      <c r="E10" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="80">
+      <c r="D10" s="142">
+        <v>0</v>
+      </c>
+      <c r="F10" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="80">
         <v>6</v>
       </c>
-      <c r="C11" s="143">
+      <c r="D11" s="143">
         <v>6</v>
       </c>
-      <c r="D11" s="203">
-        <v>0</v>
-      </c>
-      <c r="E11" s="237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>1</v>
-      </c>
-      <c r="B12" s="81">
+      <c r="E11" s="203">
+        <v>0</v>
+      </c>
+      <c r="F11" s="237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="81">
         <v>6</v>
       </c>
-      <c r="C12" s="144">
-        <v>0</v>
-      </c>
-      <c r="E12" s="238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>1</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="D12" s="144">
+        <v>0</v>
+      </c>
+      <c r="F12" s="238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="82">
         <v>8</v>
       </c>
-      <c r="C13" s="145">
-        <v>0</v>
-      </c>
-      <c r="E13" s="239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
-        <v>1</v>
-      </c>
-      <c r="B14" s="83">
+      <c r="D13" s="145">
+        <v>0</v>
+      </c>
+      <c r="F13" s="239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1</v>
+      </c>
+      <c r="C14" s="83">
         <v>5</v>
       </c>
-      <c r="C14" s="146">
-        <v>0</v>
-      </c>
-      <c r="E14" s="240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>1</v>
-      </c>
-      <c r="B15" s="84">
+      <c r="D14" s="146">
+        <v>0</v>
+      </c>
+      <c r="F14" s="240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" s="84">
         <v>4</v>
       </c>
-      <c r="C15" s="147">
-        <v>0</v>
-      </c>
-      <c r="E15" s="241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
-        <v>1</v>
-      </c>
-      <c r="B16" s="85">
+      <c r="D15" s="147">
+        <v>0</v>
+      </c>
+      <c r="F15" s="241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="85">
         <v>2</v>
       </c>
-      <c r="C16" s="148">
+      <c r="D16" s="148">
         <v>3</v>
       </c>
-      <c r="D16" s="204">
+      <c r="E16" s="204">
         <v>30</v>
       </c>
-      <c r="E16" s="242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>1</v>
-      </c>
-      <c r="B17" s="86">
+      <c r="F16" s="242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="86">
         <v>2</v>
       </c>
-      <c r="C17" s="149">
+      <c r="D17" s="149">
         <v>4</v>
       </c>
-      <c r="D17" s="205">
+      <c r="E17" s="205">
         <v>9</v>
       </c>
-      <c r="E17" s="243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
-        <v>1</v>
-      </c>
-      <c r="B18" s="87">
+      <c r="F17" s="243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24">
+        <v>1</v>
+      </c>
+      <c r="C18" s="87">
         <v>2</v>
       </c>
-      <c r="C18" s="150">
+      <c r="D18" s="150">
         <v>4</v>
       </c>
-      <c r="D18" s="206">
+      <c r="E18" s="206">
         <v>4</v>
       </c>
-      <c r="E18" s="244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>1</v>
-      </c>
-      <c r="B19" s="88">
+      <c r="F18" s="244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="88">
         <v>2</v>
       </c>
-      <c r="C19" s="151">
-        <v>1</v>
-      </c>
-      <c r="D19" s="207">
-        <v>1</v>
-      </c>
-      <c r="E19" s="245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
-        <v>1</v>
-      </c>
-      <c r="B20" s="89">
+      <c r="D19" s="151">
+        <v>1</v>
+      </c>
+      <c r="E19" s="207">
+        <v>1</v>
+      </c>
+      <c r="F19" s="245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26">
+        <v>1</v>
+      </c>
+      <c r="C20" s="89">
         <v>2</v>
       </c>
-      <c r="C20" s="152">
-        <v>0</v>
-      </c>
-      <c r="E20" s="246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
-        <v>1</v>
-      </c>
-      <c r="B21" s="90">
+      <c r="D20" s="152">
+        <v>0</v>
+      </c>
+      <c r="F20" s="246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1</v>
+      </c>
+      <c r="C21" s="90">
         <v>12</v>
       </c>
-      <c r="C21" s="153">
+      <c r="D21" s="153">
         <v>2</v>
       </c>
-      <c r="D21" s="208">
+      <c r="E21" s="208">
         <v>2</v>
       </c>
-      <c r="E21" s="247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
-        <v>1</v>
-      </c>
-      <c r="B22" s="91">
+      <c r="F21" s="247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28">
+        <v>1</v>
+      </c>
+      <c r="C22" s="91">
         <v>12</v>
       </c>
-      <c r="C22" s="154">
-        <v>0</v>
-      </c>
-      <c r="E22" s="248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
-        <v>1</v>
-      </c>
-      <c r="B23" s="92">
+      <c r="D22" s="154">
+        <v>0</v>
+      </c>
+      <c r="F22" s="248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1</v>
+      </c>
+      <c r="C23" s="92">
         <v>13</v>
       </c>
-      <c r="C23" s="155">
-        <v>0</v>
-      </c>
-      <c r="E23" s="249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
-        <v>1</v>
-      </c>
-      <c r="B24" s="93">
+      <c r="D23" s="155">
+        <v>0</v>
+      </c>
+      <c r="F23" s="249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30">
+        <v>1</v>
+      </c>
+      <c r="C24" s="93">
         <v>11</v>
       </c>
-      <c r="C24" s="156">
-        <v>0</v>
-      </c>
-      <c r="E24" s="250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
-        <v>1</v>
-      </c>
-      <c r="B25" s="94">
+      <c r="D24" s="156">
+        <v>0</v>
+      </c>
+      <c r="F24" s="250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31">
+        <v>1</v>
+      </c>
+      <c r="C25" s="94">
         <v>10</v>
       </c>
-      <c r="C25" s="157">
-        <v>0</v>
-      </c>
-      <c r="E25" s="251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
-        <v>1</v>
-      </c>
-      <c r="B26" s="95">
+      <c r="D25" s="157">
+        <v>0</v>
+      </c>
+      <c r="F25" s="251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32">
+        <v>1</v>
+      </c>
+      <c r="C26" s="95">
         <v>9</v>
       </c>
-      <c r="C26" s="158">
+      <c r="D26" s="158">
         <v>2</v>
       </c>
-      <c r="D26" s="209">
+      <c r="E26" s="209">
         <v>3</v>
       </c>
-      <c r="E26" s="252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
-        <v>1</v>
-      </c>
-      <c r="B27" s="96">
+      <c r="F26" s="252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33">
+        <v>1</v>
+      </c>
+      <c r="C27" s="96">
         <v>9</v>
       </c>
-      <c r="C27" s="159">
+      <c r="D27" s="159">
         <v>5</v>
       </c>
-      <c r="D27" s="210">
+      <c r="E27" s="210">
         <v>66</v>
       </c>
-      <c r="E27" s="253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
-        <v>1</v>
-      </c>
-      <c r="B28" s="97">
+      <c r="F27" s="253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="97">
         <v>9</v>
       </c>
-      <c r="C28" s="160">
+      <c r="D28" s="160">
         <v>3</v>
       </c>
-      <c r="D28" s="211">
+      <c r="E28" s="211">
         <v>50</v>
       </c>
-      <c r="E28" s="254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
-        <v>1</v>
-      </c>
-      <c r="B29" s="98">
+      <c r="F28" s="254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="35">
+        <v>1</v>
+      </c>
+      <c r="C29" s="98">
         <v>9</v>
       </c>
-      <c r="C29" s="161">
+      <c r="D29" s="161">
         <v>5</v>
       </c>
-      <c r="D29" s="212">
+      <c r="E29" s="212">
         <v>44</v>
       </c>
-      <c r="E29" s="255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
-        <v>1</v>
-      </c>
-      <c r="B30" s="99">
+      <c r="F29" s="255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36">
+        <v>1</v>
+      </c>
+      <c r="C30" s="99">
         <v>9</v>
       </c>
-      <c r="C30" s="162">
-        <v>0</v>
-      </c>
-      <c r="E30" s="256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
-        <v>1</v>
-      </c>
-      <c r="B31" s="100">
+      <c r="D30" s="162">
+        <v>0</v>
+      </c>
+      <c r="F30" s="256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="37">
+        <v>1</v>
+      </c>
+      <c r="C31" s="100">
         <v>17</v>
       </c>
-      <c r="C31" s="163">
+      <c r="D31" s="163">
         <v>3</v>
       </c>
-      <c r="D31" s="213">
+      <c r="E31" s="213">
         <v>40</v>
       </c>
-      <c r="E31" s="257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="38">
-        <v>1</v>
-      </c>
-      <c r="B32" s="101">
+      <c r="F31" s="257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="38">
+        <v>1</v>
+      </c>
+      <c r="C32" s="101">
         <v>17</v>
       </c>
-      <c r="C32" s="164">
-        <v>0</v>
-      </c>
-      <c r="E32" s="258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="39">
-        <v>1</v>
-      </c>
-      <c r="B33" s="102">
+      <c r="D32" s="164">
+        <v>0</v>
+      </c>
+      <c r="F32" s="258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="39">
+        <v>1</v>
+      </c>
+      <c r="C33" s="102">
         <v>18</v>
       </c>
-      <c r="C33" s="165">
-        <v>0</v>
-      </c>
-      <c r="E33" s="259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="40">
-        <v>1</v>
-      </c>
-      <c r="B34" s="103">
+      <c r="D33" s="165">
+        <v>0</v>
+      </c>
+      <c r="F33" s="259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="40">
+        <v>1</v>
+      </c>
+      <c r="C34" s="103">
         <v>16</v>
       </c>
-      <c r="C34" s="166">
+      <c r="D34" s="166">
         <v>4</v>
       </c>
-      <c r="D34" s="214">
+      <c r="E34" s="214">
         <v>8</v>
       </c>
-      <c r="E34" s="260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="41">
-        <v>1</v>
-      </c>
-      <c r="B35" s="104">
+      <c r="F34" s="260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="41">
+        <v>1</v>
+      </c>
+      <c r="C35" s="104">
         <v>16</v>
       </c>
-      <c r="C35" s="167">
+      <c r="D35" s="167">
         <v>3</v>
       </c>
-      <c r="D35" s="215">
+      <c r="E35" s="215">
         <v>60</v>
       </c>
-      <c r="E35" s="261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="42">
-        <v>1</v>
-      </c>
-      <c r="B36" s="105">
+      <c r="F35" s="261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="42">
+        <v>1</v>
+      </c>
+      <c r="C36" s="105">
         <v>16</v>
       </c>
-      <c r="C36" s="168">
+      <c r="D36" s="168">
         <v>4</v>
       </c>
-      <c r="D36" s="216">
+      <c r="E36" s="216">
         <v>3</v>
       </c>
-      <c r="E36" s="262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="43">
-        <v>1</v>
-      </c>
-      <c r="B37" s="106">
+      <c r="F36" s="262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="43">
+        <v>1</v>
+      </c>
+      <c r="C37" s="106">
         <v>16</v>
       </c>
-      <c r="C37" s="169">
-        <v>0</v>
-      </c>
-      <c r="E37" s="263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="44">
-        <v>1</v>
-      </c>
-      <c r="B38" s="107">
+      <c r="D37" s="169">
+        <v>0</v>
+      </c>
+      <c r="F37" s="263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="44">
+        <v>1</v>
+      </c>
+      <c r="C38" s="107">
         <v>21</v>
       </c>
-      <c r="C38" s="170">
-        <v>0</v>
-      </c>
-      <c r="E38" s="264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="45">
-        <v>1</v>
-      </c>
-      <c r="B39" s="108">
+      <c r="D38" s="170">
+        <v>0</v>
+      </c>
+      <c r="F38" s="264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="45">
+        <v>1</v>
+      </c>
+      <c r="C39" s="108">
         <v>20</v>
       </c>
-      <c r="C39" s="171">
+      <c r="D39" s="171">
         <v>2</v>
       </c>
-      <c r="D39" s="217">
+      <c r="E39" s="217">
         <v>2</v>
       </c>
-      <c r="E39" s="265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="46">
-        <v>1</v>
-      </c>
-      <c r="B40" s="109">
+      <c r="F39" s="265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="46">
+        <v>1</v>
+      </c>
+      <c r="C40" s="109">
         <v>20</v>
       </c>
-      <c r="C40" s="172">
+      <c r="D40" s="172">
         <v>4</v>
       </c>
-      <c r="D40" s="218">
+      <c r="E40" s="218">
         <v>3</v>
       </c>
-      <c r="E40" s="266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
-        <v>1</v>
-      </c>
-      <c r="B41" s="110">
+      <c r="F40" s="266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="47">
+        <v>1</v>
+      </c>
+      <c r="C41" s="110">
         <v>20</v>
       </c>
-      <c r="C41" s="173">
-        <v>0</v>
-      </c>
-      <c r="E41" s="267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="48">
-        <v>1</v>
-      </c>
-      <c r="B42" s="111">
+      <c r="D41" s="173">
+        <v>0</v>
+      </c>
+      <c r="F41" s="267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="48">
+        <v>1</v>
+      </c>
+      <c r="C42" s="111">
         <v>23</v>
       </c>
-      <c r="C42" s="174">
-        <v>0</v>
-      </c>
-      <c r="E42" s="268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
-        <v>1</v>
-      </c>
-      <c r="B43" s="112">
+      <c r="D42" s="174">
+        <v>0</v>
+      </c>
+      <c r="F42" s="268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="49">
+        <v>1</v>
+      </c>
+      <c r="C43" s="112">
         <v>22</v>
       </c>
-      <c r="C43" s="175">
+      <c r="D43" s="175">
         <v>4</v>
       </c>
-      <c r="D43" s="219">
+      <c r="E43" s="219">
         <v>3</v>
       </c>
-      <c r="E43" s="269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
-        <v>1</v>
-      </c>
-      <c r="B44" s="113">
+      <c r="F43" s="269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="50">
+        <v>1</v>
+      </c>
+      <c r="C44" s="113">
         <v>22</v>
       </c>
-      <c r="C44" s="176">
-        <v>0</v>
-      </c>
-      <c r="E44" s="270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51">
-        <v>1</v>
-      </c>
-      <c r="B45" s="114">
+      <c r="D44" s="176">
+        <v>0</v>
+      </c>
+      <c r="F44" s="270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="51">
+        <v>1</v>
+      </c>
+      <c r="C45" s="114">
         <v>24</v>
       </c>
-      <c r="C45" s="177">
-        <v>0</v>
-      </c>
-      <c r="E45" s="271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="52">
-        <v>1</v>
-      </c>
-      <c r="B46" s="115">
+      <c r="D45" s="177">
+        <v>0</v>
+      </c>
+      <c r="F45" s="271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="52">
+        <v>1</v>
+      </c>
+      <c r="C46" s="115">
         <v>19</v>
       </c>
-      <c r="C46" s="178">
-        <v>0</v>
-      </c>
-      <c r="E46" s="272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="53">
-        <v>1</v>
-      </c>
-      <c r="B47" s="116">
+      <c r="D46" s="178">
+        <v>0</v>
+      </c>
+      <c r="F46" s="272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="53">
+        <v>1</v>
+      </c>
+      <c r="C47" s="116">
         <v>15</v>
       </c>
-      <c r="C47" s="179">
-        <v>1</v>
-      </c>
-      <c r="D47" s="220">
-        <v>1</v>
-      </c>
-      <c r="E47" s="273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="54">
-        <v>1</v>
-      </c>
-      <c r="B48" s="117">
+      <c r="D47" s="179">
+        <v>1</v>
+      </c>
+      <c r="E47" s="220">
+        <v>1</v>
+      </c>
+      <c r="F47" s="273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="54">
+        <v>1</v>
+      </c>
+      <c r="C48" s="117">
         <v>15</v>
       </c>
-      <c r="C48" s="180">
+      <c r="D48" s="180">
         <v>5</v>
       </c>
-      <c r="D48" s="221">
+      <c r="E48" s="221">
         <v>67</v>
       </c>
-      <c r="E48" s="274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="55">
-        <v>1</v>
-      </c>
-      <c r="B49" s="118">
+      <c r="F48" s="274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="55">
+        <v>1</v>
+      </c>
+      <c r="C49" s="118">
         <v>15</v>
       </c>
-      <c r="C49" s="181">
-        <v>0</v>
-      </c>
-      <c r="E49" s="275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="56">
-        <v>1</v>
-      </c>
-      <c r="B50" s="119">
+      <c r="D49" s="181">
+        <v>0</v>
+      </c>
+      <c r="F49" s="275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="56">
+        <v>1</v>
+      </c>
+      <c r="C50" s="119">
         <v>26</v>
       </c>
-      <c r="C50" s="182">
-        <v>0</v>
-      </c>
-      <c r="E50" s="276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
-        <v>1</v>
-      </c>
-      <c r="B51" s="120">
+      <c r="D50" s="182">
+        <v>0</v>
+      </c>
+      <c r="F50" s="276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="57">
+        <v>1</v>
+      </c>
+      <c r="C51" s="120">
         <v>25</v>
       </c>
-      <c r="C51" s="183">
+      <c r="D51" s="183">
         <v>3</v>
       </c>
-      <c r="D51" s="222">
+      <c r="E51" s="222">
         <v>50</v>
       </c>
-      <c r="E51" s="277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="58">
-        <v>1</v>
-      </c>
-      <c r="B52" s="121">
+      <c r="F51" s="277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="58">
+        <v>1</v>
+      </c>
+      <c r="C52" s="121">
         <v>25</v>
       </c>
-      <c r="C52" s="184">
-        <v>0</v>
-      </c>
-      <c r="E52" s="278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="59">
-        <v>1</v>
-      </c>
-      <c r="B53" s="122">
+      <c r="D52" s="184">
+        <v>0</v>
+      </c>
+      <c r="F52" s="278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="59">
+        <v>1</v>
+      </c>
+      <c r="C53" s="122">
         <v>27</v>
       </c>
-      <c r="C53" s="185">
-        <v>0</v>
-      </c>
-      <c r="E53" s="279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="60">
-        <v>1</v>
-      </c>
-      <c r="B54" s="123">
+      <c r="D53" s="185">
+        <v>0</v>
+      </c>
+      <c r="F53" s="279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="60">
+        <v>1</v>
+      </c>
+      <c r="C54" s="123">
         <v>14</v>
       </c>
-      <c r="C54" s="186">
+      <c r="D54" s="186">
         <v>4</v>
       </c>
-      <c r="D54" s="223">
+      <c r="E54" s="223">
         <v>4</v>
       </c>
-      <c r="E54" s="280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="61">
-        <v>1</v>
-      </c>
-      <c r="B55" s="124">
+      <c r="F54" s="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="61">
+        <v>1</v>
+      </c>
+      <c r="C55" s="124">
         <v>14</v>
       </c>
-      <c r="C55" s="187">
-        <v>1</v>
-      </c>
-      <c r="D55" s="224">
-        <v>1</v>
-      </c>
-      <c r="E55" s="281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="62">
-        <v>1</v>
-      </c>
-      <c r="B56" s="125">
+      <c r="D55" s="187">
+        <v>1</v>
+      </c>
+      <c r="E55" s="224">
+        <v>1</v>
+      </c>
+      <c r="F55" s="281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="62">
+        <v>1</v>
+      </c>
+      <c r="C56" s="125">
         <v>14</v>
       </c>
-      <c r="C56" s="188">
-        <v>0</v>
-      </c>
-      <c r="E56" s="282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="63">
-        <v>1</v>
-      </c>
-      <c r="B57" s="126">
+      <c r="D56" s="188">
+        <v>0</v>
+      </c>
+      <c r="F56" s="282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="63">
+        <v>1</v>
+      </c>
+      <c r="C57" s="126">
         <v>29</v>
       </c>
-      <c r="C57" s="189">
-        <v>0</v>
-      </c>
-      <c r="E57" s="283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="64">
-        <v>1</v>
-      </c>
-      <c r="B58" s="127">
+      <c r="D57" s="189">
+        <v>0</v>
+      </c>
+      <c r="F57" s="283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="64">
+        <v>1</v>
+      </c>
+      <c r="C58" s="127">
         <v>28</v>
       </c>
-      <c r="C58" s="190">
+      <c r="D58" s="190">
         <v>5</v>
       </c>
-      <c r="D58" s="225">
+      <c r="E58" s="225">
         <v>38</v>
       </c>
-      <c r="E58" s="284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="65">
-        <v>1</v>
-      </c>
-      <c r="B59" s="128">
+      <c r="F58" s="284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="65">
+        <v>1</v>
+      </c>
+      <c r="C59" s="128">
         <v>28</v>
       </c>
-      <c r="C59" s="191">
-        <v>0</v>
-      </c>
-      <c r="E59" s="285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="66">
-        <v>1</v>
-      </c>
-      <c r="B60" s="129">
+      <c r="D59" s="191">
+        <v>0</v>
+      </c>
+      <c r="F59" s="285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="66">
+        <v>1</v>
+      </c>
+      <c r="C60" s="129">
         <v>30</v>
       </c>
-      <c r="C60" s="192">
+      <c r="D60" s="192">
         <v>4</v>
       </c>
-      <c r="D60" s="226">
+      <c r="E60" s="226">
         <v>10</v>
       </c>
-      <c r="E60" s="286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="67">
-        <v>1</v>
-      </c>
-      <c r="B61" s="130">
+      <c r="F60" s="286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="67">
+        <v>1</v>
+      </c>
+      <c r="C61" s="130">
         <v>30</v>
       </c>
-      <c r="C61" s="193">
-        <v>0</v>
-      </c>
-      <c r="E61" s="287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="68">
-        <v>1</v>
-      </c>
-      <c r="B62" s="131">
+      <c r="D61" s="193">
+        <v>0</v>
+      </c>
+      <c r="F61" s="287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="68">
+        <v>1</v>
+      </c>
+      <c r="C62" s="131">
         <v>31</v>
       </c>
-      <c r="C62" s="194">
+      <c r="D62" s="194">
         <v>5</v>
       </c>
-      <c r="D62" s="227">
+      <c r="E62" s="227">
         <v>67</v>
       </c>
-      <c r="E62" s="288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="69">
-        <v>1</v>
-      </c>
-      <c r="B63" s="132">
+      <c r="F62" s="288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="69">
+        <v>1</v>
+      </c>
+      <c r="C63" s="132">
         <v>31</v>
       </c>
-      <c r="C63" s="195">
-        <v>0</v>
-      </c>
-      <c r="E63" s="289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="70">
-        <v>1</v>
-      </c>
-      <c r="B64" s="133">
+      <c r="D63" s="195">
+        <v>0</v>
+      </c>
+      <c r="F63" s="289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="70">
+        <v>1</v>
+      </c>
+      <c r="C64" s="133">
         <v>32</v>
       </c>
-      <c r="C64" s="196">
-        <v>0</v>
-      </c>
-      <c r="E64" s="290">
+      <c r="D64" s="196">
+        <v>0</v>
+      </c>
+      <c r="F64" s="290">
         <v>0</v>
       </c>
     </row>
